--- a/sharedata/exceldata/excel/all/P-叛军表.xlsx
+++ b/sharedata/exceldata/excel/all/P-叛军表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\excel\all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\sharedata\exceldata\excel\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="叛军表" sheetId="7" r:id="rId1"/>
@@ -252,6 +252,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>appear_ratio</t>
@@ -268,6 +269,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ticket_limit</t>
@@ -284,6 +286,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ticket</t>
@@ -292,6 +295,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_recover_time</t>
@@ -308,6 +312,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ticket</t>
@@ -316,6 +321,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_add_</t>
@@ -324,6 +330,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>coin</t>
@@ -340,6 +347,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>halve_cost</t>
@@ -353,6 +361,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2//14</t>
@@ -378,6 +387,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>cost</t>
@@ -394,6 +404,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>cost</t>
@@ -410,6 +421,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>attack_ratio</t>
@@ -474,6 +486,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>honour_param</t>
@@ -523,6 +536,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>honour_param</t>
@@ -557,6 +571,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>loop</t>
@@ -565,6 +580,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_time</t>
@@ -581,6 +597,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>cooling</t>
@@ -589,6 +606,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_time</t>
@@ -611,6 +629,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>show_unit</t>
@@ -639,6 +658,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_name</t>
@@ -1179,6 +1199,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>loat</t>
@@ -1217,11 +1238,13 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1236,12 +1259,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1249,6 +1274,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1256,6 +1282,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1315,6 +1342,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1352,6 +1380,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1388,6 +1417,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2023,13 +2053,13 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2471,15 +2501,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" customWidth="1"/>
     <col min="4" max="4" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.8984375" bestFit="1" customWidth="1"/>
@@ -2755,21 +2785,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.69921875" customWidth="1"/>
-    <col min="3" max="3" width="42.8984375" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" customWidth="1"/>
-    <col min="9" max="9" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4287,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9408,10 +9439,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -11624,68 +11655,68 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -11735,68 +11766,68 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>193</v>
       </c>
     </row>
